--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jag2-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jag2-Notch4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H2">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I2">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J2">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N2">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O2">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P2">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q2">
-        <v>1022.58859637623</v>
+        <v>1216.409093407104</v>
       </c>
       <c r="R2">
-        <v>4090.354385504921</v>
+        <v>4865.636373628417</v>
       </c>
       <c r="S2">
-        <v>0.2647319089800996</v>
+        <v>0.7395733884041595</v>
       </c>
       <c r="T2">
-        <v>0.1759250407136434</v>
+        <v>0.677316346020588</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H3">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I3">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J3">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.230285</v>
       </c>
       <c r="O3">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P3">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q3">
-        <v>31.90772847959167</v>
+        <v>39.73597536508083</v>
       </c>
       <c r="R3">
-        <v>191.44637087755</v>
+        <v>238.415852190485</v>
       </c>
       <c r="S3">
-        <v>0.008260402963180691</v>
+        <v>0.02415936390279981</v>
       </c>
       <c r="T3">
-        <v>0.008234056860810293</v>
+        <v>0.03318845500133877</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H4">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I4">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J4">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N4">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O4">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P4">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q4">
-        <v>18.330320580545</v>
+        <v>3.393882766047166</v>
       </c>
       <c r="R4">
-        <v>109.98192348327</v>
+        <v>20.363296596283</v>
       </c>
       <c r="S4">
-        <v>0.004745428197323171</v>
+        <v>0.002063471401797501</v>
       </c>
       <c r="T4">
-        <v>0.00473029291425825</v>
+        <v>0.002834653596039806</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H5">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I5">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J5">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N5">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O5">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P5">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q5">
-        <v>20.628137502225</v>
+        <v>39.60884616585525</v>
       </c>
       <c r="R5">
-        <v>82.51255000889999</v>
+        <v>158.435384663421</v>
       </c>
       <c r="S5">
-        <v>0.005340296419322505</v>
+        <v>0.02408206969878081</v>
       </c>
       <c r="T5">
-        <v>0.003548842557784974</v>
+        <v>0.02205484906398182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H6">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I6">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J6">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N6">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O6">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P6">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q6">
-        <v>636.8458932596151</v>
+        <v>20.31529693807</v>
       </c>
       <c r="R6">
-        <v>3821.07535955769</v>
+        <v>121.89178162842</v>
       </c>
       <c r="S6">
-        <v>0.1648692637940643</v>
+        <v>0.01235164475040361</v>
       </c>
       <c r="T6">
-        <v>0.1643434223162319</v>
+        <v>0.01696783109193474</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H7">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I7">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J7">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N7">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O7">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P7">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q7">
-        <v>24.98896644270667</v>
+        <v>12.152893520926</v>
       </c>
       <c r="R7">
-        <v>149.93379865624</v>
+        <v>72.917361125556</v>
       </c>
       <c r="S7">
-        <v>0.006469245611832993</v>
+        <v>0.007388925887598684</v>
       </c>
       <c r="T7">
-        <v>0.006448612307633632</v>
+        <v>0.01015039283796611</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I8">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J8">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N8">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O8">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P8">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q8">
-        <v>13.55806791826933</v>
+        <v>12.95055939338533</v>
       </c>
       <c r="R8">
-        <v>81.34840750961601</v>
+        <v>77.70335636031199</v>
       </c>
       <c r="S8">
-        <v>0.003509967952708061</v>
+        <v>0.007873904547579543</v>
       </c>
       <c r="T8">
-        <v>0.003498773102358623</v>
+        <v>0.01081662281397632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I9">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J9">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>5.230285</v>
       </c>
       <c r="O9">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P9">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q9">
         <v>0.4230510210822222</v>
@@ -1013,10 +1013,10 @@
         <v>3.80745918974</v>
       </c>
       <c r="S9">
-        <v>0.0001095211747949827</v>
+        <v>0.0002572138590753742</v>
       </c>
       <c r="T9">
-        <v>0.0001637577945187897</v>
+        <v>0.0005300137840128185</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I10">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J10">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N10">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O10">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P10">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q10">
-        <v>0.2430339359106666</v>
+        <v>0.03613314021911111</v>
       </c>
       <c r="R10">
-        <v>2.187305423195999</v>
+        <v>0.325198261972</v>
       </c>
       <c r="S10">
-        <v>6.291761714200308E-05</v>
+        <v>2.196885002781462E-05</v>
       </c>
       <c r="T10">
-        <v>9.407541727742706E-05</v>
+        <v>4.52689189280428E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I11">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J11">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N11">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O11">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P11">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q11">
-        <v>0.2734997146199999</v>
+        <v>0.421697533794</v>
       </c>
       <c r="R11">
-        <v>1.64099828772</v>
+        <v>2.530185202764</v>
       </c>
       <c r="S11">
-        <v>7.080472226410999E-05</v>
+        <v>0.0002563909425209536</v>
       </c>
       <c r="T11">
-        <v>7.057889448435242E-05</v>
+        <v>0.0003522120571072393</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I12">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J12">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N12">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O12">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P12">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q12">
-        <v>8.443669237934666</v>
+        <v>0.2162878105866667</v>
       </c>
       <c r="R12">
-        <v>75.993023141412</v>
+        <v>1.94659029528</v>
       </c>
       <c r="S12">
-        <v>0.002185931550651259</v>
+        <v>0.0001315023948876079</v>
       </c>
       <c r="T12">
-        <v>0.003268439462722848</v>
+        <v>0.0002709732755912836</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I13">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J13">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N13">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O13">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P13">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q13">
-        <v>0.3313180935502223</v>
+        <v>0.1293863801226667</v>
       </c>
       <c r="R13">
-        <v>2.981862841952</v>
+        <v>1.164477421104</v>
       </c>
       <c r="S13">
-        <v>8.577298015645697E-05</v>
+        <v>7.866656380596762E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001282491179081908</v>
+        <v>0.0001620999867890811</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H14">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I14">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J14">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N14">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O14">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P14">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q14">
-        <v>101.83078158422</v>
+        <v>87.72301297622366</v>
       </c>
       <c r="R14">
-        <v>610.98468950532</v>
+        <v>526.338077857342</v>
       </c>
       <c r="S14">
-        <v>0.02636236830457263</v>
+        <v>0.05333535099292022</v>
       </c>
       <c r="T14">
-        <v>0.02627828697619504</v>
+        <v>0.07326839827119803</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H15">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I15">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J15">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.230285</v>
       </c>
       <c r="O15">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P15">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q15">
-        <v>3.177415571783333</v>
+        <v>2.865614456079444</v>
       </c>
       <c r="R15">
-        <v>28.59674014605</v>
+        <v>25.790530104715</v>
       </c>
       <c r="S15">
-        <v>0.0008225823101510674</v>
+        <v>0.001742285720017489</v>
       </c>
       <c r="T15">
-        <v>0.001229938093456982</v>
+        <v>0.003590146544270629</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H16">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I16">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J16">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N16">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O16">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P16">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q16">
-        <v>1.82535858313</v>
+        <v>0.2447545184752222</v>
       </c>
       <c r="R16">
-        <v>16.42822724817</v>
+        <v>2.202790666277</v>
       </c>
       <c r="S16">
-        <v>0.0004725562792286653</v>
+        <v>0.0001488100751112745</v>
       </c>
       <c r="T16">
-        <v>0.0007065736303262948</v>
+        <v>0.0003066374078460749</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H17">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I17">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J17">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N17">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O17">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P17">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q17">
-        <v>2.05417835865</v>
+        <v>2.8564463592165</v>
       </c>
       <c r="R17">
-        <v>12.3250701519</v>
+        <v>17.138678155299</v>
       </c>
       <c r="S17">
-        <v>0.0005317940765212145</v>
+        <v>0.001736711542301377</v>
       </c>
       <c r="T17">
-        <v>0.0005300979484700226</v>
+        <v>0.002385773611584831</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H18">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I18">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J18">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N18">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O18">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P18">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q18">
-        <v>63.41799164311</v>
+        <v>1.465065549553333</v>
       </c>
       <c r="R18">
-        <v>570.76192478799</v>
+        <v>13.18558994598</v>
       </c>
       <c r="S18">
-        <v>0.01641790848329351</v>
+        <v>0.0008907558309042748</v>
       </c>
       <c r="T18">
-        <v>0.02454831669645897</v>
+        <v>0.001835487676543543</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H19">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I19">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J19">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N19">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O19">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P19">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q19">
-        <v>2.488435713893334</v>
+        <v>0.8764226129293333</v>
       </c>
       <c r="R19">
-        <v>22.39592142504</v>
+        <v>7.887803516364</v>
       </c>
       <c r="S19">
-        <v>0.0006442163928365046</v>
+        <v>0.0005328625419123232</v>
       </c>
       <c r="T19">
-        <v>0.0009632425499565509</v>
+        <v>0.001098014287460605</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H20">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I20">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J20">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N20">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O20">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P20">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q20">
-        <v>97.885468077878</v>
+        <v>100.4018373395055</v>
       </c>
       <c r="R20">
-        <v>391.541872311512</v>
+        <v>401.607349358022</v>
       </c>
       <c r="S20">
-        <v>0.02534098944335695</v>
+        <v>0.06104404138840983</v>
       </c>
       <c r="T20">
-        <v>0.0168401104979064</v>
+        <v>0.05590537424385068</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H21">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I21">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J21">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>5.230285</v>
       </c>
       <c r="O21">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P21">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q21">
-        <v>3.054310353738333</v>
+        <v>3.2797888118025</v>
       </c>
       <c r="R21">
-        <v>18.32586212243</v>
+        <v>19.678732870815</v>
       </c>
       <c r="S21">
-        <v>0.0007907123289152566</v>
+        <v>0.001994102590930747</v>
       </c>
       <c r="T21">
-        <v>0.0007881903952933749</v>
+        <v>0.002739359544954263</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H22">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I22">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J22">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N22">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O22">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P22">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q22">
-        <v>1.754637218136999</v>
+        <v>0.2801294953095</v>
       </c>
       <c r="R22">
-        <v>10.527823308822</v>
+        <v>1.680776971857</v>
       </c>
       <c r="S22">
-        <v>0.0004542476436477272</v>
+        <v>0.0001703179638831069</v>
       </c>
       <c r="T22">
-        <v>0.0004527988456926639</v>
+        <v>0.0002339709813137531</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H23">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I23">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J23">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N23">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O23">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P23">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q23">
-        <v>1.974591641385</v>
+        <v>3.26929562718975</v>
       </c>
       <c r="R23">
-        <v>7.898366565539998</v>
+        <v>13.077182508759</v>
       </c>
       <c r="S23">
-        <v>0.0005111903423648918</v>
+        <v>0.001987722763501583</v>
       </c>
       <c r="T23">
-        <v>0.0003397066191961211</v>
+        <v>0.001820396920962639</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H24">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I24">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J24">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N24">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O24">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P24">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q24">
-        <v>60.96093636883899</v>
+        <v>1.67681510253</v>
       </c>
       <c r="R24">
-        <v>365.765618213034</v>
+        <v>10.06089061518</v>
       </c>
       <c r="S24">
-        <v>0.01578181598672897</v>
+        <v>0.001019498977627536</v>
       </c>
       <c r="T24">
-        <v>0.01573148074988515</v>
+        <v>0.001400516838068785</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H25">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I25">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J25">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N25">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O25">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P25">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q25">
-        <v>2.392024207677334</v>
+        <v>1.003094144154</v>
       </c>
       <c r="R25">
-        <v>14.352145246064</v>
+        <v>6.018564864924</v>
       </c>
       <c r="S25">
-        <v>0.0006192569886551401</v>
+        <v>0.0006098784850435676</v>
       </c>
       <c r="T25">
-        <v>0.0006172819024408943</v>
+        <v>0.0008378086748719156</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H26">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I26">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J26">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N26">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O26">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P26">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q26">
-        <v>774.4062824160953</v>
+        <v>35.74550724224634</v>
       </c>
       <c r="R26">
-        <v>4646.437694496572</v>
+        <v>214.473043453478</v>
       </c>
       <c r="S26">
-        <v>0.2004814587182898</v>
+        <v>0.02173317024236178</v>
       </c>
       <c r="T26">
-        <v>0.1998420340972027</v>
+        <v>0.02985551877636434</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H27">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I27">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J27">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>5.230285</v>
       </c>
       <c r="O27">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P27">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q27">
-        <v>24.16372085488389</v>
+        <v>1.167684953103889</v>
       </c>
       <c r="R27">
-        <v>217.473487693955</v>
+        <v>10.509164577935</v>
       </c>
       <c r="S27">
-        <v>0.006255602666257497</v>
+        <v>0.0007099492449014206</v>
       </c>
       <c r="T27">
-        <v>0.009353476146779956</v>
+        <v>0.001462918394443819</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H28">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I28">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J28">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N28">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O28">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P28">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q28">
-        <v>13.88155067108966</v>
+        <v>0.09973294482144446</v>
       </c>
       <c r="R28">
-        <v>124.933956039807</v>
+        <v>0.897596503393</v>
       </c>
       <c r="S28">
-        <v>0.003593712487880597</v>
+        <v>6.063735657427794E-05</v>
       </c>
       <c r="T28">
-        <v>0.005373375808391342</v>
+        <v>0.0001249490790504009</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H29">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I29">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J29">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N29">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O29">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P29">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q29">
-        <v>15.621687287415</v>
+        <v>1.1639491229985</v>
       </c>
       <c r="R29">
-        <v>93.73012372448999</v>
+        <v>6.983694737991001</v>
       </c>
       <c r="S29">
-        <v>0.004044206156554844</v>
+        <v>0.0007076778704563267</v>
       </c>
       <c r="T29">
-        <v>0.004031307382744109</v>
+        <v>0.0009721586732820058</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H30">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I30">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J30">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N30">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O30">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P30">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q30">
-        <v>482.2833565901476</v>
+        <v>0.5969871466466667</v>
       </c>
       <c r="R30">
-        <v>4340.550209311328</v>
+        <v>5.372884319820001</v>
       </c>
       <c r="S30">
-        <v>0.1248554835364754</v>
+        <v>0.0003629665457716543</v>
       </c>
       <c r="T30">
-        <v>0.1866858957254989</v>
+        <v>0.0007479273204253039</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H31">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I31">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J31">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N31">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O31">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P31">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q31">
-        <v>18.92414278126489</v>
+        <v>0.3571260242306667</v>
       </c>
       <c r="R31">
-        <v>170.317285031384</v>
+        <v>3.214134218076</v>
       </c>
       <c r="S31">
-        <v>0.004899159312014286</v>
+        <v>0.0002171316420266064</v>
       </c>
       <c r="T31">
-        <v>0.007325300567981163</v>
+        <v>0.0004474205380422927</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H32">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I32">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J32">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N32">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O32">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P32">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q32">
-        <v>240.0639075920974</v>
+        <v>49.216569664259</v>
       </c>
       <c r="R32">
-        <v>1440.383445552584</v>
+        <v>295.299417985554</v>
       </c>
       <c r="S32">
-        <v>0.06214872409030459</v>
+        <v>0.02992353920199065</v>
       </c>
       <c r="T32">
-        <v>0.06195050414215301</v>
+        <v>0.04110687840464922</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H33">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I33">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J33">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>5.230285</v>
       </c>
       <c r="O33">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P33">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q33">
-        <v>7.490689812445557</v>
+        <v>1.607739049578333</v>
       </c>
       <c r="R33">
-        <v>67.41620831201001</v>
+        <v>14.469651446205</v>
       </c>
       <c r="S33">
-        <v>0.00193922034790314</v>
+        <v>0.0009775009271230316</v>
       </c>
       <c r="T33">
-        <v>0.002899552966383322</v>
+        <v>0.002014234252862305</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H34">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I34">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J34">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N34">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O34">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P34">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q34">
-        <v>4.303244140972666</v>
+        <v>0.1373183318776666</v>
       </c>
       <c r="R34">
-        <v>38.729197268754</v>
+        <v>1.235864986899</v>
       </c>
       <c r="S34">
-        <v>0.001114041404611935</v>
+        <v>8.348916869103349E-05</v>
       </c>
       <c r="T34">
-        <v>0.001665732345944692</v>
+        <v>0.0001720374259034464</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H35">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I35">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J35">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N35">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O35">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P35">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q35">
-        <v>4.84268190813</v>
+        <v>1.6025953334355</v>
       </c>
       <c r="R35">
-        <v>29.05609144878</v>
+        <v>9.615572000613</v>
       </c>
       <c r="S35">
-        <v>0.001253693255201302</v>
+        <v>0.0009743735618333747</v>
       </c>
       <c r="T35">
-        <v>0.001249694669298188</v>
+        <v>0.001338526678165294</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H36">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I36">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J36">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N36">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O36">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P36">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q36">
-        <v>149.5065701022487</v>
+        <v>0.82196789914</v>
       </c>
       <c r="R36">
-        <v>1345.559130920238</v>
+        <v>7.39771109226</v>
       </c>
       <c r="S36">
-        <v>0.03870487099943509</v>
+        <v>0.0004997542254667822</v>
       </c>
       <c r="T36">
-        <v>0.05787213590309404</v>
+        <v>0.001029791431411263</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H37">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I37">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J37">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N37">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O37">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P37">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q37">
-        <v>5.866434411827557</v>
+        <v>0.491712643252</v>
       </c>
       <c r="R37">
-        <v>52.79790970644801</v>
+        <v>4.425413789268</v>
       </c>
       <c r="S37">
-        <v>0.001518726481258614</v>
+        <v>0.0002989599368025601</v>
       </c>
       <c r="T37">
-        <v>0.002270823879617352</v>
+        <v>0.0006160355742204574</v>
       </c>
     </row>
   </sheetData>
